--- a/content/Book Five 1-10.xlsx
+++ b/content/Book Five 1-10.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9B2C3F-F032-4E3A-9AC5-7FE1E3752BD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC152B8E-87A6-4AE0-BF23-A66134E3E3FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="737" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="737" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 5-1" sheetId="1" r:id="rId1"/>
@@ -13621,8 +13621,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E408"/>
   <sheetViews>
-    <sheetView topLeftCell="A392" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A407" sqref="A407:A408"/>
+    <sheetView tabSelected="1" topLeftCell="A383" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A386" sqref="A386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19883,7 +19883,7 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>4395</v>
+        <v>4398</v>
       </c>
       <c r="B385" s="1">
         <v>39</v>
@@ -20267,7 +20267,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A276" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A280" sqref="A280"/>
     </sheetView>
   </sheetViews>

--- a/content/Book Five 1-10.xlsx
+++ b/content/Book Five 1-10.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC152B8E-87A6-4AE0-BF23-A66134E3E3FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB42683-0A92-4E19-A525-70B5171A4177}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="737" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="737" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 5-1" sheetId="1" r:id="rId1"/>
@@ -13621,7 +13621,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A383" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A383" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A386" sqref="A386"/>
     </sheetView>
   </sheetViews>
@@ -31748,8 +31748,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E173"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="105.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32661,7 +32661,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>4395</v>
+        <v>4398</v>
       </c>
       <c r="B56" s="1">
         <v>6</v>
